--- a/Hardware/Manufacturing/Ordering files/Segments and colon/BOM.xlsx
+++ b/Hardware/Manufacturing/Ordering files/Segments and colon/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marou\Projekty\Vedatori\Time-O-Mat\Hardware\Manufacturing\Ordering files\Segments and colon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE71764D-1840-422B-9A92-DDE4EFEAE5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEF6899-93E2-4076-A34D-3B02E6BA0DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{80B67AEC-C183-4A7F-8DBC-511B323CDE3A}"/>
+    <workbookView xWindow="7305" yWindow="2100" windowWidth="21600" windowHeight="11295" xr2:uid="{80B67AEC-C183-4A7F-8DBC-511B323CDE3A}"/>
   </bookViews>
   <sheets>
     <sheet name="List2" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Comment</t>
   </si>
@@ -90,34 +90,43 @@
     <t>C19702</t>
   </si>
   <si>
-    <t>WS2812E</t>
-  </si>
-  <si>
     <t>LED_SMD:LED_WS2812B_PLCC4_5.0x5.0mm_P3.2mm</t>
   </si>
   <si>
-    <t>C139127</t>
-  </si>
-  <si>
-    <t>75R</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
   <si>
-    <t>C4275</t>
-  </si>
-  <si>
     <t>C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21</t>
   </si>
   <si>
-    <t>D1,D2,D3,D4,D5,D6,D7,D8,D9,D10,D11,D12,D13,D14,D15,D16,D17,D18,D19,D20,D21</t>
-  </si>
-  <si>
     <t>LCSC Part Number</t>
+  </si>
+  <si>
+    <t>C23179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470R </t>
+  </si>
+  <si>
+    <t>D1,D2,D3,D4,D5,D6,D7,D8,D9</t>
+  </si>
+  <si>
+    <t>D10,D11,D12,D13,D14,D15,D16,D17,D18,D19,D20,D21</t>
+  </si>
+  <si>
+    <t>C2761795</t>
+  </si>
+  <si>
+    <t>WS2812 Worldsemi</t>
+  </si>
+  <si>
+    <t>WS2812 Xinglight</t>
+  </si>
+  <si>
+    <t>C2843785</t>
   </si>
 </sst>
 </file>
@@ -470,17 +479,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE16284-6D50-4A3F-ABF5-8DC1AE8EF476}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="88.42578125" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -528,34 +537,49 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
